--- a/VersionRecords/Version 5.2.10.5 20170214/版本Bug和特性计划及评审表v5.2.10.5.xlsx
+++ b/VersionRecords/Version 5.2.10.5 20170214/版本Bug和特性计划及评审表v5.2.10.5.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>No</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>能</t>
+  </si>
+  <si>
+    <t>芝麻分更新</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>李亚林</t>
   </si>
   <si>
     <t>上线版本</t>
@@ -277,10 +286,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -393,6 +402,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -401,23 +433,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,7 +448,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,6 +494,36 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,63 +538,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,32 +558,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -604,7 +613,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +667,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,19 +727,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,139 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,26 +968,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,17 +998,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,7 +1013,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,19 +1036,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,172 +1070,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1939,7 +1948,7 @@
   <dimension ref="A1:X168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2098,30 +2107,60 @@
       <c r="W2" s="86"/>
       <c r="X2" s="87"/>
     </row>
-    <row r="3" s="55" customFormat="1" ht="16.5" spans="1:24">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="72"/>
+    <row r="3" s="55" customFormat="1" ht="18" customHeight="1" spans="1:24">
+      <c r="A3" s="60">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="63">
+        <v>42779</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="63">
+        <v>42779</v>
+      </c>
+      <c r="K3" s="62"/>
+      <c r="L3" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="81">
+        <v>42779</v>
+      </c>
+      <c r="R3" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="83"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="85"/>
       <c r="V3" s="80"/>
-      <c r="W3" s="89"/>
+      <c r="W3" s="86"/>
       <c r="X3" s="87"/>
     </row>
     <row r="4" s="55" customFormat="1" ht="16.5" spans="1:24">
@@ -6123,36 +6162,37 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B4:B1048576">
+      <formula1>"重要,不重要"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4:N77">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组,TP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3:B1048576">
-      <formula1>"重要,不重要"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3 R4:R1048576">
+      <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2 P3 P4:P1048576">
+      <formula1>"通过,不通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C4:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2 E3:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2 E3 E4:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3:N77">
-      <formula1>"高,中,低"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G2 I2 V2 G3:G1048576 I3:I1048576 V3:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G2 I2 V2 G3 I3 V3 G4:G1048576 I4:I1048576 V4:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M3:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M4:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3:R1048576">
-      <formula1>"能,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2 P3:P1048576">
-      <formula1>"通过,不通过"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6191,55 +6231,55 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>36</v>
-      </c>
       <c r="O1" s="40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R1" s="40" t="s">
         <v>22</v>
@@ -6335,7 +6375,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:11">
       <c r="A1" s="22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6350,34 +6390,34 @@
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" s="24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>22</v>
@@ -6539,7 +6579,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6571,40 +6611,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -6816,11 +6856,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6854,7 +6894,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6886,40 +6926,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -7131,11 +7171,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7169,7 +7209,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -7201,40 +7241,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -7446,11 +7486,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7486,7 +7526,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -7518,40 +7558,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -7757,9 +7797,6 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
@@ -7768,6 +7805,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7797,28 +7837,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">

--- a/VersionRecords/Version 5.2.10.5 20170214/版本Bug和特性计划及评审表v5.2.10.5.xlsx
+++ b/VersionRecords/Version 5.2.10.5 20170214/版本Bug和特性计划及评审表v5.2.10.5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.2.10.5 20170214/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.2.10.5 20170214/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28700" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.10.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -297,12 +297,64 @@
     </rPh>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>扫码账单详情不能支付蘑菇宝账单</t>
+    <rPh sb="0" eb="1">
+      <t>sao'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mo'gu'b</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhang'd</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>renterembed-fe</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <rPh sb="0" eb="1">
+      <t>y'l'l</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <rPh sb="0" eb="1">
+      <t>w'y'f</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -322,20 +374,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
@@ -372,35 +424,35 @@
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <u/>
@@ -461,6 +513,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -692,7 +752,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,6 +785,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,7 +1087,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="16">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="8"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1036,6 +1102,8 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="个性色4" xfId="5" builtinId="41"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1393,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1614,24 +1682,58 @@
       <c r="X3" s="78"/>
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="55">
+        <v>3</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="58">
+        <v>42780</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="58">
+        <v>42780</v>
+      </c>
       <c r="K4" s="57"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="67"/>
+      <c r="L4" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="58">
+        <v>42780</v>
+      </c>
+      <c r="R4" s="67" t="s">
+        <v>34</v>
+      </c>
       <c r="S4" s="79"/>
       <c r="T4" s="63"/>
       <c r="U4" s="63"/>
@@ -5613,28 +5715,28 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B4:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4:N77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N77">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组,TP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3 R4:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2 P3 P4:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C4:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2 E3 E4:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G2 I2 V2 G3 I3 V3 G4:G1048576 I4:I1048576 V4:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M4:M1048576">
